--- a/Open Source task.xlsx
+++ b/Open Source task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legion\Desktop\open-source\Security-Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Right Click\Security-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655120EA-671F-4435-B8F2-FC3A0DB523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57680FDB-D9A8-4D0B-87CD-1BF968D4C68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A782380-5C03-4ABF-949C-B3350E41F3A7}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -47,20 +36,20 @@
     <t>Repo Link</t>
   </si>
   <si>
-    <t>https://github.com/0xkillua/Security-Task.git</t>
-  </si>
-  <si>
-    <t>heikalsayed@gmail.com</t>
-  </si>
-  <si>
-    <t>السيد اسامه رجب السيد</t>
+    <t>https://github.com/moaaz311/Tradex.git</t>
+  </si>
+  <si>
+    <t>medm57324@gmail.com</t>
+  </si>
+  <si>
+    <t>ايمان عادل محمد الجنايني</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,14 +453,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
